--- a/Code/Results/Cases/Case_6_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_14/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.002102088284645</v>
+        <v>0.9979702577795394</v>
       </c>
       <c r="D2">
-        <v>1.023506300159397</v>
+        <v>1.020135657647516</v>
       </c>
       <c r="E2">
-        <v>1.007640184504246</v>
+        <v>1.00467787363972</v>
       </c>
       <c r="F2">
-        <v>1.023344505326373</v>
+        <v>1.019737570609146</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0484465393549</v>
+        <v>1.046735415138606</v>
       </c>
       <c r="J2">
-        <v>1.024220107523228</v>
+        <v>1.020211848037368</v>
       </c>
       <c r="K2">
-        <v>1.034647587304134</v>
+        <v>1.031321420976673</v>
       </c>
       <c r="L2">
-        <v>1.018994095794962</v>
+        <v>1.016072420694199</v>
       </c>
       <c r="M2">
-        <v>1.034487918988328</v>
+        <v>1.030928611122686</v>
       </c>
       <c r="N2">
-        <v>1.0256746175556</v>
+        <v>1.021660665881513</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.009618790879304</v>
+        <v>1.002903581793192</v>
       </c>
       <c r="D3">
-        <v>1.029519273064702</v>
+        <v>1.024034810450272</v>
       </c>
       <c r="E3">
-        <v>1.013914102843444</v>
+        <v>1.008639694691195</v>
       </c>
       <c r="F3">
-        <v>1.030228852721219</v>
+        <v>1.024364929033725</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051007043751337</v>
+        <v>1.048219690970432</v>
       </c>
       <c r="J3">
-        <v>1.029850628815151</v>
+        <v>1.023315403996737</v>
       </c>
       <c r="K3">
-        <v>1.039787883212129</v>
+        <v>1.034369127012081</v>
       </c>
       <c r="L3">
-        <v>1.024371992589453</v>
+        <v>1.01916320976894</v>
       </c>
       <c r="M3">
-        <v>1.040489025121904</v>
+        <v>1.034695265920714</v>
       </c>
       <c r="N3">
-        <v>1.031313134833586</v>
+        <v>1.02476862924633</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.014335934479132</v>
+        <v>1.006025232528874</v>
       </c>
       <c r="D4">
-        <v>1.033294281888904</v>
+        <v>1.026501931013967</v>
       </c>
       <c r="E4">
-        <v>1.017857179006143</v>
+        <v>1.011152876183337</v>
       </c>
       <c r="F4">
-        <v>1.03455490952367</v>
+        <v>1.027296458396378</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052598004385663</v>
+        <v>1.049143426202141</v>
       </c>
       <c r="J4">
-        <v>1.033379901165197</v>
+        <v>1.025276057992839</v>
       </c>
       <c r="K4">
-        <v>1.043006817880323</v>
+        <v>1.036290686311329</v>
       </c>
       <c r="L4">
-        <v>1.02774475693186</v>
+        <v>1.021118533886303</v>
       </c>
       <c r="M4">
-        <v>1.044253435016541</v>
+        <v>1.037076233891605</v>
       </c>
       <c r="N4">
-        <v>1.034847419155184</v>
+        <v>1.026732067595996</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016285887082927</v>
+        <v>1.00732133575515</v>
       </c>
       <c r="D5">
-        <v>1.034855035399515</v>
+        <v>1.027526176866503</v>
       </c>
       <c r="E5">
-        <v>1.019488459446477</v>
+        <v>1.012197796886018</v>
       </c>
       <c r="F5">
-        <v>1.036344478429351</v>
+        <v>1.028514410495964</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053251781546689</v>
+        <v>1.049523190048264</v>
       </c>
       <c r="J5">
-        <v>1.034837741893565</v>
+        <v>1.026089314783666</v>
       </c>
       <c r="K5">
-        <v>1.044335707282424</v>
+        <v>1.037086794004575</v>
       </c>
       <c r="L5">
-        <v>1.029138380977513</v>
+        <v>1.021930235511066</v>
       </c>
       <c r="M5">
-        <v>1.045809072539722</v>
+        <v>1.03806416607769</v>
       </c>
       <c r="N5">
-        <v>1.036307330184603</v>
+        <v>1.027546479304748</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016611404074822</v>
+        <v>1.00753802313358</v>
       </c>
       <c r="D6">
-        <v>1.035115593066861</v>
+        <v>1.027697406540911</v>
       </c>
       <c r="E6">
-        <v>1.019760852969674</v>
+        <v>1.012372574598522</v>
       </c>
       <c r="F6">
-        <v>1.036643294328457</v>
+        <v>1.028718077152588</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053360689693088</v>
+        <v>1.049586457123241</v>
       </c>
       <c r="J6">
-        <v>1.035081042617224</v>
+        <v>1.026225229735997</v>
       </c>
       <c r="K6">
-        <v>1.044557441748807</v>
+        <v>1.037219787527169</v>
       </c>
       <c r="L6">
-        <v>1.029370989682873</v>
+        <v>1.022065929092317</v>
       </c>
       <c r="M6">
-        <v>1.04606873355769</v>
+        <v>1.038229293082034</v>
       </c>
       <c r="N6">
-        <v>1.036550976423195</v>
+        <v>1.027682587271901</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014362117546791</v>
+        <v>1.006042614098256</v>
       </c>
       <c r="D7">
-        <v>1.033315238097679</v>
+        <v>1.026515667272294</v>
       </c>
       <c r="E7">
-        <v>1.01787907803071</v>
+        <v>1.011166883559997</v>
       </c>
       <c r="F7">
-        <v>1.034578934081693</v>
+        <v>1.027312788862951</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052606798486847</v>
+        <v>1.049148534047917</v>
       </c>
       <c r="J7">
-        <v>1.033399480723821</v>
+        <v>1.025286967509416</v>
       </c>
       <c r="K7">
-        <v>1.043024668597383</v>
+        <v>1.036301369492718</v>
       </c>
       <c r="L7">
-        <v>1.02776347232684</v>
+        <v>1.021129419949739</v>
       </c>
       <c r="M7">
-        <v>1.04427432541075</v>
+        <v>1.037089485292693</v>
       </c>
       <c r="N7">
-        <v>1.034867026519026</v>
+        <v>1.026742992605338</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.004674006636818</v>
+        <v>0.9996525056413585</v>
       </c>
       <c r="D8">
-        <v>1.025563305095981</v>
+        <v>1.021465245610352</v>
       </c>
       <c r="E8">
-        <v>1.00978557591619</v>
+        <v>1.006027494383423</v>
       </c>
       <c r="F8">
-        <v>1.025698779951191</v>
+        <v>1.021314723033789</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049325952779451</v>
+        <v>1.047244760022453</v>
       </c>
       <c r="J8">
-        <v>1.026147489249546</v>
+        <v>1.021270792775075</v>
       </c>
       <c r="K8">
-        <v>1.03640779029428</v>
+        <v>1.032362099346478</v>
       </c>
       <c r="L8">
-        <v>1.020834606983045</v>
+        <v>1.017126433775211</v>
       </c>
       <c r="M8">
-        <v>1.036541542858852</v>
+        <v>1.032213510281421</v>
       </c>
       <c r="N8">
-        <v>1.027604736385042</v>
+        <v>1.022721114442213</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9863802692544452</v>
+        <v>0.987820965150715</v>
       </c>
       <c r="D9">
-        <v>1.010943929372939</v>
+        <v>1.012116205377978</v>
       </c>
       <c r="E9">
-        <v>0.9945554012684157</v>
+        <v>0.9965643035262223</v>
       </c>
       <c r="F9">
-        <v>1.008982564563468</v>
+        <v>1.010239317451704</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043005219364441</v>
+        <v>1.043599006588508</v>
       </c>
       <c r="J9">
-        <v>1.012423315554924</v>
+        <v>1.013811250380986</v>
       </c>
       <c r="K9">
-        <v>1.023861909711911</v>
+        <v>1.025015717280749</v>
       </c>
       <c r="L9">
-        <v>1.007737435286031</v>
+        <v>1.009713369542628</v>
       </c>
       <c r="M9">
-        <v>1.021931567827708</v>
+        <v>1.023168424892509</v>
       </c>
       <c r="N9">
-        <v>1.013861072789589</v>
+        <v>1.015250978642303</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9732065762184089</v>
+        <v>0.9795023751990136</v>
       </c>
       <c r="D10">
-        <v>1.000437979623781</v>
+        <v>1.005549052027008</v>
       </c>
       <c r="E10">
-        <v>0.9836316316642</v>
+        <v>0.9899503579932039</v>
       </c>
       <c r="F10">
-        <v>0.9969884827188266</v>
+        <v>1.002476520100139</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038373349698118</v>
+        <v>1.040957684024391</v>
       </c>
       <c r="J10">
-        <v>1.002525098763316</v>
+        <v>1.008553530376559</v>
       </c>
       <c r="K10">
-        <v>1.014799330713464</v>
+        <v>1.019818834239018</v>
       </c>
       <c r="L10">
-        <v>0.9983028477167141</v>
+        <v>1.004503463880396</v>
       </c>
       <c r="M10">
-        <v>1.011412324760969</v>
+        <v>1.016801203715055</v>
       </c>
       <c r="N10">
-        <v>1.003948799394796</v>
+        <v>1.0099857920724</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.967229012669541</v>
+        <v>0.9757866493824767</v>
       </c>
       <c r="D11">
-        <v>0.9956784652964018</v>
+        <v>1.002618195686111</v>
       </c>
       <c r="E11">
-        <v>0.9786874490082542</v>
+        <v>0.9870063569402063</v>
       </c>
       <c r="F11">
-        <v>0.9915586669595242</v>
+        <v>0.999015672434273</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036253984867061</v>
+        <v>1.039760243877192</v>
       </c>
       <c r="J11">
-        <v>0.9980316383042948</v>
+        <v>1.006202615400218</v>
       </c>
       <c r="K11">
-        <v>1.010682342208566</v>
+        <v>1.017490905003577</v>
       </c>
       <c r="L11">
-        <v>0.9940228007351016</v>
+        <v>1.002177546118171</v>
       </c>
       <c r="M11">
-        <v>1.006641549749731</v>
+        <v>1.013956175635651</v>
       </c>
       <c r="N11">
-        <v>0.9994489577065158</v>
+        <v>1.007631538527139</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C12">
-        <v>0.9649635218196607</v>
+        <v>0.9743883082855558</v>
       </c>
       <c r="D12">
-        <v>0.9938759813151893</v>
+        <v>1.001515707727761</v>
       </c>
       <c r="E12">
-        <v>0.9768156848514594</v>
+        <v>0.9859000713215383</v>
       </c>
       <c r="F12">
-        <v>0.9895028579893544</v>
+        <v>0.9977143248713002</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035448229475144</v>
+        <v>1.039307043132872</v>
       </c>
       <c r="J12">
-        <v>0.9963284405539494</v>
+        <v>1.005317593410236</v>
       </c>
       <c r="K12">
-        <v>1.00912145591773</v>
+        <v>1.016613926667682</v>
       </c>
       <c r="L12">
-        <v>0.9924009595307686</v>
+        <v>1.001302482710857</v>
       </c>
       <c r="M12">
-        <v>1.004833968306131</v>
+        <v>1.012885446211343</v>
       </c>
       <c r="N12">
-        <v>0.9977433412200054</v>
+        <v>1.006745259704418</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9654515928974182</v>
+        <v>0.9746890968819478</v>
       </c>
       <c r="D13">
-        <v>0.9942642377740754</v>
+        <v>1.001752833674896</v>
       </c>
       <c r="E13">
-        <v>0.9772188353601556</v>
+        <v>0.9861379625208417</v>
       </c>
       <c r="F13">
-        <v>0.9899456580518842</v>
+        <v>0.9979941998641882</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035621930500979</v>
+        <v>1.039404643023032</v>
       </c>
       <c r="J13">
-        <v>0.9966953784569543</v>
+        <v>1.005507977645991</v>
       </c>
       <c r="K13">
-        <v>1.009457750785693</v>
+        <v>1.016802607705108</v>
       </c>
       <c r="L13">
-        <v>0.992750348581148</v>
+        <v>1.00149069983347</v>
       </c>
       <c r="M13">
-        <v>1.005223361141088</v>
+        <v>1.013115765539184</v>
       </c>
       <c r="N13">
-        <v>0.9981108002169211</v>
+        <v>1.006935914307626</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9670426934468139</v>
+        <v>0.9756714389218043</v>
       </c>
       <c r="D14">
-        <v>0.9955301956916441</v>
+        <v>1.002527350395739</v>
       </c>
       <c r="E14">
-        <v>0.9785334674534779</v>
+        <v>0.9869151755077089</v>
       </c>
       <c r="F14">
-        <v>0.9913895488954991</v>
+        <v>0.9989084310233913</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036187767891111</v>
+        <v>1.039722955986345</v>
       </c>
       <c r="J14">
-        <v>0.9978915661561496</v>
+        <v>1.006129703466303</v>
       </c>
       <c r="K14">
-        <v>1.010553981395117</v>
+        <v>1.017418667981353</v>
       </c>
       <c r="L14">
-        <v>0.993889409850699</v>
+        <v>1.0021054434506</v>
       </c>
       <c r="M14">
-        <v>1.006492878003933</v>
+        <v>1.013867958065906</v>
       </c>
       <c r="N14">
-        <v>0.9993086866398538</v>
+        <v>1.007558523049916</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9680169068077139</v>
+        <v>0.9762742530891504</v>
       </c>
       <c r="D15">
-        <v>0.9963055147659444</v>
+        <v>1.003002699287652</v>
       </c>
       <c r="E15">
-        <v>0.979338681397688</v>
+        <v>0.9873923299052034</v>
       </c>
       <c r="F15">
-        <v>0.9922739080302113</v>
+        <v>0.9994695931282953</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036533897291025</v>
+        <v>1.039917952816664</v>
       </c>
       <c r="J15">
-        <v>0.9986239594894198</v>
+        <v>1.006511187727781</v>
       </c>
       <c r="K15">
-        <v>1.011225124435023</v>
+        <v>1.017796596338659</v>
       </c>
       <c r="L15">
-        <v>0.9945868879583567</v>
+        <v>1.002482715888041</v>
       </c>
       <c r="M15">
-        <v>1.007270265792522</v>
+        <v>1.014329535805111</v>
       </c>
       <c r="N15">
-        <v>1.000042120055664</v>
+        <v>1.007940549062802</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9735971924827407</v>
+        <v>0.9797464903381412</v>
       </c>
       <c r="D16">
-        <v>1.000749175035087</v>
+        <v>1.00574166421118</v>
       </c>
       <c r="E16">
-        <v>0.9839549938184387</v>
+        <v>0.9901439937962416</v>
       </c>
       <c r="F16">
-        <v>0.9973435805323697</v>
+        <v>1.002704034701587</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038511489981094</v>
+        <v>1.041035993246728</v>
       </c>
       <c r="J16">
-        <v>1.002818700413288</v>
+        <v>1.008707935331031</v>
       </c>
       <c r="K16">
-        <v>1.015068278043567</v>
+        <v>1.019971643812437</v>
       </c>
       <c r="L16">
-        <v>0.9985825675980203</v>
+        <v>1.004656302680054</v>
       </c>
       <c r="M16">
-        <v>1.011724144345437</v>
+        <v>1.016988103252453</v>
       </c>
       <c r="N16">
-        <v>1.004242817992787</v>
+        <v>1.010140416299619</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9770216718990965</v>
+        <v>0.9818933579014913</v>
       </c>
       <c r="D17">
-        <v>1.003478259528443</v>
+        <v>1.007435890243876</v>
       </c>
       <c r="E17">
-        <v>0.9867912932300514</v>
+        <v>0.9918481015373334</v>
       </c>
       <c r="F17">
-        <v>1.000458105183958</v>
+        <v>1.004705670400371</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039720572511366</v>
+        <v>1.041722689637663</v>
       </c>
       <c r="J17">
-        <v>1.005392439601062</v>
+        <v>1.010065580967771</v>
       </c>
       <c r="K17">
-        <v>1.017425575877481</v>
+        <v>1.021314785536579</v>
       </c>
       <c r="L17">
-        <v>1.001034951641012</v>
+        <v>1.006000588902895</v>
       </c>
       <c r="M17">
-        <v>1.014458106921955</v>
+        <v>1.018631692182566</v>
       </c>
       <c r="N17">
-        <v>1.00682021218542</v>
+        <v>1.011499989948886</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9789930514590026</v>
+        <v>0.9831346936172651</v>
       </c>
       <c r="D18">
-        <v>1.005050012101337</v>
+        <v>1.008415738937443</v>
       </c>
       <c r="E18">
-        <v>0.988425229834105</v>
+        <v>0.9928343995841949</v>
       </c>
       <c r="F18">
-        <v>1.002252209997361</v>
+        <v>1.005863653135286</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04041494309269</v>
+        <v>1.04211806860957</v>
       </c>
       <c r="J18">
-        <v>1.006873860073167</v>
+        <v>1.010850349877117</v>
       </c>
       <c r="K18">
-        <v>1.018782141418701</v>
+        <v>1.022090769915853</v>
       </c>
       <c r="L18">
-        <v>1.002446795438419</v>
+        <v>1.006777977675165</v>
       </c>
       <c r="M18">
-        <v>1.01603218027906</v>
+        <v>1.019581934109297</v>
       </c>
       <c r="N18">
-        <v>1.008303736444517</v>
+        <v>1.012285873320098</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9796609361154408</v>
+        <v>0.9835561399949778</v>
       </c>
       <c r="D19">
-        <v>1.005582618073408</v>
+        <v>1.008748444519956</v>
       </c>
       <c r="E19">
-        <v>0.9889789825936859</v>
+        <v>0.993169420050827</v>
       </c>
       <c r="F19">
-        <v>1.00286022630453</v>
+        <v>1.006256903366669</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040649903032337</v>
+        <v>1.042252017558573</v>
       </c>
       <c r="J19">
-        <v>1.007375711526714</v>
+        <v>1.011116745876214</v>
       </c>
       <c r="K19">
-        <v>1.019241648903953</v>
+        <v>1.02235411526311</v>
       </c>
       <c r="L19">
-        <v>1.002925122739075</v>
+        <v>1.007041926328125</v>
       </c>
       <c r="M19">
-        <v>1.016565491061234</v>
+        <v>1.019904532794507</v>
       </c>
       <c r="N19">
-        <v>1.008806300584691</v>
+        <v>1.01255264763207</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9766569811770743</v>
+        <v>0.9816641537920372</v>
       </c>
       <c r="D20">
-        <v>1.003187551463481</v>
+        <v>1.007254986129327</v>
       </c>
       <c r="E20">
-        <v>0.9864891193234665</v>
+        <v>0.9916660661932166</v>
       </c>
       <c r="F20">
-        <v>1.000126301416402</v>
+        <v>1.00449190652059</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039591983211047</v>
+        <v>1.04164954968964</v>
       </c>
       <c r="J20">
-        <v>1.005118369654261</v>
+        <v>1.009920659558991</v>
       </c>
       <c r="K20">
-        <v>1.017174582235991</v>
+        <v>1.021171453770387</v>
       </c>
       <c r="L20">
-        <v>1.000773775788675</v>
+        <v>1.005857058001091</v>
       </c>
       <c r="M20">
-        <v>1.014166930329605</v>
+        <v>1.018456228363283</v>
       </c>
       <c r="N20">
-        <v>1.006545753027858</v>
+        <v>1.011354862735084</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9665754363729746</v>
+        <v>0.9753826738709541</v>
       </c>
       <c r="D21">
-        <v>0.9951583834334122</v>
+        <v>1.002299662664072</v>
       </c>
       <c r="E21">
-        <v>0.9781473418803983</v>
+        <v>0.9866866637126345</v>
       </c>
       <c r="F21">
-        <v>0.9909654636985368</v>
+        <v>0.998639657303158</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036021666928973</v>
+        <v>1.039629456049186</v>
       </c>
       <c r="J21">
-        <v>0.9975402865268664</v>
+        <v>1.005946951382088</v>
       </c>
       <c r="K21">
-        <v>1.01023206597011</v>
+        <v>1.017237597816433</v>
       </c>
       <c r="L21">
-        <v>0.9935548933618091</v>
+        <v>1.00192472861737</v>
       </c>
       <c r="M21">
-        <v>1.006120043749869</v>
+        <v>1.013646847706404</v>
       </c>
       <c r="N21">
-        <v>0.9989569081532047</v>
+        <v>1.007375511436779</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.959973029991264</v>
+        <v>0.9713276237404657</v>
       </c>
       <c r="D22">
-        <v>0.9899082205878562</v>
+        <v>0.9991035905491469</v>
       </c>
       <c r="E22">
-        <v>0.9726965846783369</v>
+        <v>0.9834817376235103</v>
       </c>
       <c r="F22">
-        <v>0.9849783643316624</v>
+        <v>0.9948680115329958</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033668800725681</v>
+        <v>1.038310446498432</v>
       </c>
       <c r="J22">
-        <v>0.9925764241903967</v>
+        <v>1.003379977184668</v>
       </c>
       <c r="K22">
-        <v>1.005682284028138</v>
+        <v>1.014692826426264</v>
       </c>
       <c r="L22">
-        <v>0.9888290507070117</v>
+        <v>0.9993876836509038</v>
       </c>
       <c r="M22">
-        <v>1.000853394075814</v>
+        <v>1.010541824299273</v>
       </c>
       <c r="N22">
-        <v>0.9939859965628541</v>
+        <v>1.004804891841562</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.963499615252799</v>
+        <v>0.9734876758043441</v>
       </c>
       <c r="D23">
-        <v>0.9927116757089139</v>
+        <v>1.000805775176772</v>
       </c>
       <c r="E23">
-        <v>0.9756068079182907</v>
+        <v>0.9851880145398525</v>
       </c>
       <c r="F23">
-        <v>0.9881750592842857</v>
+        <v>0.9968764767518501</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034926877567773</v>
+        <v>1.039014435990129</v>
       </c>
       <c r="J23">
-        <v>0.995227842808722</v>
+        <v>1.00474749860985</v>
       </c>
       <c r="K23">
-        <v>1.008112716486831</v>
+        <v>1.016048844566676</v>
       </c>
       <c r="L23">
-        <v>0.9913530680127393</v>
+        <v>1.000738957935913</v>
       </c>
       <c r="M23">
-        <v>1.003666129004571</v>
+        <v>1.012195813459887</v>
       </c>
       <c r="N23">
-        <v>0.9966411804997397</v>
+        <v>1.006174355304025</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.976821849450121</v>
+        <v>0.9817677548558396</v>
       </c>
       <c r="D24">
-        <v>1.003318971745527</v>
+        <v>1.00733675470769</v>
       </c>
       <c r="E24">
-        <v>0.9866257216064327</v>
+        <v>0.9917483438082907</v>
       </c>
       <c r="F24">
-        <v>1.000276298672616</v>
+        <v>1.004588526625481</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039650120655612</v>
+        <v>1.041682614402544</v>
       </c>
       <c r="J24">
-        <v>1.005242271029028</v>
+        <v>1.009986165271262</v>
       </c>
       <c r="K24">
-        <v>1.017288052141365</v>
+        <v>1.021236242195577</v>
       </c>
       <c r="L24">
-        <v>1.000891847158535</v>
+        <v>1.0059219341315</v>
       </c>
       <c r="M24">
-        <v>1.014298563933371</v>
+        <v>1.018535538924963</v>
       </c>
       <c r="N24">
-        <v>1.006669830356789</v>
+        <v>1.011420461472979</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9912694152738403</v>
+        <v>0.9909520128444698</v>
       </c>
       <c r="D25">
-        <v>1.014848083723396</v>
+        <v>1.01458960639119</v>
       </c>
       <c r="E25">
-        <v>0.9986189603366808</v>
+        <v>0.9990621010863853</v>
       </c>
       <c r="F25">
-        <v>1.013443329882352</v>
+        <v>1.013166385351401</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044708516541932</v>
+        <v>1.044577502676584</v>
       </c>
       <c r="J25">
-        <v>1.016094213548132</v>
+        <v>1.015787762305332</v>
       </c>
       <c r="K25">
-        <v>1.027220193439632</v>
+        <v>1.026965581883995</v>
       </c>
       <c r="L25">
-        <v>1.011238753064451</v>
+        <v>1.011674994196189</v>
       </c>
       <c r="M25">
-        <v>1.025836479283505</v>
+        <v>1.02556369144943</v>
       </c>
       <c r="N25">
-        <v>1.017537183879006</v>
+        <v>1.01723029744029</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_14/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9979702577795394</v>
+        <v>0.9975071410161824</v>
       </c>
       <c r="D2">
-        <v>1.020135657647516</v>
+        <v>1.021709170328635</v>
       </c>
       <c r="E2">
-        <v>1.00467787363972</v>
+        <v>1.004340853832683</v>
       </c>
       <c r="F2">
-        <v>1.019737570609146</v>
+        <v>1.020857750646001</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046735415138606</v>
+        <v>1.04753419362472</v>
       </c>
       <c r="J2">
-        <v>1.020211848037368</v>
+        <v>1.019762669579513</v>
       </c>
       <c r="K2">
-        <v>1.031321420976673</v>
+        <v>1.032874125094955</v>
       </c>
       <c r="L2">
-        <v>1.016072420694199</v>
+        <v>1.015740043127515</v>
       </c>
       <c r="M2">
-        <v>1.030928611122686</v>
+        <v>1.032033954828577</v>
       </c>
       <c r="N2">
-        <v>1.021660665881513</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.010585066170393</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.034315073831296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002903581793192</v>
+        <v>1.001294717483054</v>
       </c>
       <c r="D3">
-        <v>1.024034810450272</v>
+        <v>1.024381114502248</v>
       </c>
       <c r="E3">
-        <v>1.008639694691195</v>
+        <v>1.007306117633933</v>
       </c>
       <c r="F3">
-        <v>1.024364929033725</v>
+        <v>1.024255524122842</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048219690970432</v>
+        <v>1.04839567868648</v>
       </c>
       <c r="J3">
-        <v>1.023315403996737</v>
+        <v>1.021750149314102</v>
       </c>
       <c r="K3">
-        <v>1.034369127012081</v>
+        <v>1.03471125635062</v>
       </c>
       <c r="L3">
-        <v>1.01916320976894</v>
+        <v>1.017846361107595</v>
       </c>
       <c r="M3">
-        <v>1.034695265920714</v>
+        <v>1.03458717956482</v>
       </c>
       <c r="N3">
-        <v>1.02476862924633</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.011248135673579</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.035611421377897</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006025232528874</v>
+        <v>1.003701978123594</v>
       </c>
       <c r="D4">
-        <v>1.026501931013967</v>
+        <v>1.026080644827063</v>
       </c>
       <c r="E4">
-        <v>1.011152876183337</v>
+        <v>1.009196808317414</v>
       </c>
       <c r="F4">
-        <v>1.027296458396378</v>
+        <v>1.026419259168366</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049143426202141</v>
+        <v>1.048929182209671</v>
       </c>
       <c r="J4">
-        <v>1.025276057992839</v>
+        <v>1.023011458648004</v>
       </c>
       <c r="K4">
-        <v>1.036290686311329</v>
+        <v>1.035874168483482</v>
       </c>
       <c r="L4">
-        <v>1.021118533886303</v>
+        <v>1.019185488862295</v>
       </c>
       <c r="M4">
-        <v>1.037076233891605</v>
+        <v>1.036208949812693</v>
       </c>
       <c r="N4">
-        <v>1.026732067595996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.011668971647771</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.036434609550766</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00732133575515</v>
+        <v>1.004706404367059</v>
       </c>
       <c r="D5">
-        <v>1.027526176866503</v>
+        <v>1.026791729456856</v>
       </c>
       <c r="E5">
-        <v>1.012197796886018</v>
+        <v>1.009987414059128</v>
       </c>
       <c r="F5">
-        <v>1.028514410495964</v>
+        <v>1.027324018922534</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049523190048264</v>
+        <v>1.049149577080417</v>
       </c>
       <c r="J5">
-        <v>1.026089314783666</v>
+        <v>1.023538404504804</v>
       </c>
       <c r="K5">
-        <v>1.037086794004575</v>
+        <v>1.036360435460222</v>
       </c>
       <c r="L5">
-        <v>1.021930235511066</v>
+        <v>1.019745160701258</v>
       </c>
       <c r="M5">
-        <v>1.03806416607769</v>
+        <v>1.036886861117544</v>
       </c>
       <c r="N5">
-        <v>1.027546479304748</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.011845063607786</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.036785646516814</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00753802313358</v>
+        <v>1.004877538567249</v>
       </c>
       <c r="D6">
-        <v>1.027697406540911</v>
+        <v>1.026914942313172</v>
       </c>
       <c r="E6">
-        <v>1.012372574598522</v>
+        <v>1.010122556862764</v>
       </c>
       <c r="F6">
-        <v>1.028718077152588</v>
+        <v>1.027479399351318</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049586457123241</v>
+        <v>1.049188397981369</v>
       </c>
       <c r="J6">
-        <v>1.026225229735997</v>
+        <v>1.023629542666131</v>
       </c>
       <c r="K6">
-        <v>1.037219787527169</v>
+        <v>1.036445901089712</v>
       </c>
       <c r="L6">
-        <v>1.022065929092317</v>
+        <v>1.019841552724401</v>
       </c>
       <c r="M6">
-        <v>1.038229293082034</v>
+        <v>1.037004168636278</v>
       </c>
       <c r="N6">
-        <v>1.027682587271901</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.01187584810813</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.036854860419523</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006042614098256</v>
+        <v>1.003723658271343</v>
       </c>
       <c r="D7">
-        <v>1.026515667272294</v>
+        <v>1.026101430384941</v>
       </c>
       <c r="E7">
-        <v>1.011166883559997</v>
+        <v>1.009214827968077</v>
       </c>
       <c r="F7">
-        <v>1.027312788862951</v>
+        <v>1.026441893307578</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049148534047917</v>
+        <v>1.048937874085545</v>
       </c>
       <c r="J7">
-        <v>1.025286967509416</v>
+        <v>1.023026533737654</v>
       </c>
       <c r="K7">
-        <v>1.036301369492718</v>
+        <v>1.035891819417197</v>
       </c>
       <c r="L7">
-        <v>1.021129419949739</v>
+        <v>1.019200331371608</v>
       </c>
       <c r="M7">
-        <v>1.037089485292693</v>
+        <v>1.036228429889579</v>
       </c>
       <c r="N7">
-        <v>1.026742992605338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.011674901343143</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.036467291930329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9996525056413585</v>
+        <v>0.9988064804903987</v>
       </c>
       <c r="D8">
-        <v>1.021465245610352</v>
+        <v>1.022632063856877</v>
       </c>
       <c r="E8">
-        <v>1.006027494383423</v>
+        <v>1.005358050145146</v>
       </c>
       <c r="F8">
-        <v>1.021314723033789</v>
+        <v>1.022026214012213</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047244760022453</v>
+        <v>1.047837299295783</v>
       </c>
       <c r="J8">
-        <v>1.021270792775075</v>
+        <v>1.020449360949224</v>
       </c>
       <c r="K8">
-        <v>1.032362099346478</v>
+        <v>1.033513953565451</v>
       </c>
       <c r="L8">
-        <v>1.017126433775211</v>
+        <v>1.016465929107042</v>
       </c>
       <c r="M8">
-        <v>1.032213510281421</v>
+        <v>1.032915868197579</v>
       </c>
       <c r="N8">
-        <v>1.022721114442213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.010815317481862</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.034790521664643</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.987820965150715</v>
+        <v>0.9897804196060939</v>
       </c>
       <c r="D9">
-        <v>1.012116205377978</v>
+        <v>1.016267880453011</v>
       </c>
       <c r="E9">
-        <v>0.9965643035262223</v>
+        <v>0.9983265858678654</v>
       </c>
       <c r="F9">
-        <v>1.010239317451704</v>
+        <v>1.013951080033239</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043599006588508</v>
+        <v>1.045702151324204</v>
       </c>
       <c r="J9">
-        <v>1.013811250380986</v>
+        <v>1.01569929174678</v>
       </c>
       <c r="K9">
-        <v>1.025015717280749</v>
+        <v>1.029102423416915</v>
       </c>
       <c r="L9">
-        <v>1.009713369542628</v>
+        <v>1.011446871520458</v>
       </c>
       <c r="M9">
-        <v>1.023168424892509</v>
+        <v>1.026821794346892</v>
       </c>
       <c r="N9">
-        <v>1.015250978642303</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.009229809352467</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.031668040885461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9795023751990136</v>
+        <v>0.983509384169074</v>
       </c>
       <c r="D10">
-        <v>1.005549052027008</v>
+        <v>1.011859683479033</v>
       </c>
       <c r="E10">
-        <v>0.9899503579932039</v>
+        <v>0.9934778159706771</v>
       </c>
       <c r="F10">
-        <v>1.002476520100139</v>
+        <v>1.008368018971288</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040957684024391</v>
+        <v>1.044149356538322</v>
       </c>
       <c r="J10">
-        <v>1.008553530376559</v>
+        <v>1.012392905016576</v>
       </c>
       <c r="K10">
-        <v>1.019818834239018</v>
+        <v>1.026018059121313</v>
       </c>
       <c r="L10">
-        <v>1.004503463880396</v>
+        <v>1.007965837524453</v>
       </c>
       <c r="M10">
-        <v>1.016801203715055</v>
+        <v>1.022587812253262</v>
       </c>
       <c r="N10">
-        <v>1.0099857920724</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.008126908540913</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.029504103903694</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,81 +856,93 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9757866493824767</v>
+        <v>0.9807376822902069</v>
       </c>
       <c r="D11">
-        <v>1.002618195686111</v>
+        <v>1.009920733334589</v>
       </c>
       <c r="E11">
-        <v>0.9870063569402063</v>
+        <v>0.9913452491586688</v>
       </c>
       <c r="F11">
-        <v>0.999015672434273</v>
+        <v>1.005910528764582</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039760243877192</v>
+        <v>1.043451023055303</v>
       </c>
       <c r="J11">
-        <v>1.006202615400218</v>
+        <v>1.010934347230334</v>
       </c>
       <c r="K11">
-        <v>1.017490905003577</v>
+        <v>1.024657953277142</v>
       </c>
       <c r="L11">
-        <v>1.002177546118171</v>
+        <v>1.00643224812348</v>
       </c>
       <c r="M11">
-        <v>1.013956175635651</v>
+        <v>1.020721835371681</v>
       </c>
       <c r="N11">
-        <v>1.007631538527139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.007641840386486</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.028575550182178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9743883082855558</v>
+        <v>0.9796923676589063</v>
       </c>
       <c r="D12">
-        <v>1.001515707727761</v>
+        <v>1.009186715358752</v>
       </c>
       <c r="E12">
-        <v>0.9859000713215383</v>
+        <v>0.9905416306792044</v>
       </c>
       <c r="F12">
-        <v>0.9977143248713002</v>
+        <v>1.004982901138777</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039307043132872</v>
+        <v>1.043183053247827</v>
       </c>
       <c r="J12">
-        <v>1.005317593410236</v>
+        <v>1.010381762258639</v>
       </c>
       <c r="K12">
-        <v>1.016613926667682</v>
+        <v>1.024140003713391</v>
       </c>
       <c r="L12">
-        <v>1.001302482710857</v>
+        <v>1.005852309577463</v>
       </c>
       <c r="M12">
-        <v>1.012885446211343</v>
+        <v>1.02001525525006</v>
       </c>
       <c r="N12">
-        <v>1.006745259704418</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.007457357861561</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.028209336996518</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9746890968819478</v>
+        <v>0.9799160101685627</v>
       </c>
       <c r="D13">
-        <v>1.001752833674896</v>
+        <v>1.009343082635081</v>
       </c>
       <c r="E13">
-        <v>0.9861379625208417</v>
+        <v>0.990713344799912</v>
       </c>
       <c r="F13">
-        <v>0.9979941998641882</v>
+        <v>1.005180951117997</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039404643023032</v>
+        <v>1.043240058900908</v>
       </c>
       <c r="J13">
-        <v>1.005507977645991</v>
+        <v>1.010499540927123</v>
       </c>
       <c r="K13">
-        <v>1.016802607705108</v>
+        <v>1.024250006250866</v>
       </c>
       <c r="L13">
-        <v>1.00149069983347</v>
+        <v>1.005976011566657</v>
       </c>
       <c r="M13">
-        <v>1.013115765539184</v>
+        <v>1.020165858100997</v>
       </c>
       <c r="N13">
-        <v>1.006935914307626</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.007496532904668</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.028284598266952</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9756714389218043</v>
+        <v>0.9806510383525784</v>
       </c>
       <c r="D14">
-        <v>1.002527350395739</v>
+        <v>1.009859602649287</v>
       </c>
       <c r="E14">
-        <v>0.9869151755077089</v>
+        <v>0.9912785443653138</v>
       </c>
       <c r="F14">
-        <v>0.9989084310233913</v>
+        <v>1.005833461135502</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039722955986345</v>
+        <v>1.043428674323915</v>
       </c>
       <c r="J14">
-        <v>1.006129703466303</v>
+        <v>1.010888354096146</v>
       </c>
       <c r="K14">
-        <v>1.017418667981353</v>
+        <v>1.024614674417181</v>
       </c>
       <c r="L14">
-        <v>1.0021054434506</v>
+        <v>1.006384017896605</v>
       </c>
       <c r="M14">
-        <v>1.013867958065906</v>
+        <v>1.020663024732855</v>
       </c>
       <c r="N14">
-        <v>1.007558523049916</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.007626423365708</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.028543872638117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9762742530891504</v>
+        <v>0.9811046272678527</v>
       </c>
       <c r="D15">
-        <v>1.003002699287652</v>
+        <v>1.010179721566391</v>
       </c>
       <c r="E15">
-        <v>0.9873923299052034</v>
+        <v>0.9916278241651126</v>
       </c>
       <c r="F15">
-        <v>0.9994695931282953</v>
+        <v>1.006237001466438</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039917952816664</v>
+        <v>1.043545622718007</v>
       </c>
       <c r="J15">
-        <v>1.006511187727781</v>
+        <v>1.011129173631318</v>
       </c>
       <c r="K15">
-        <v>1.017796596338659</v>
+        <v>1.024841307606378</v>
       </c>
       <c r="L15">
-        <v>1.002482715888041</v>
+        <v>1.006636557116942</v>
       </c>
       <c r="M15">
-        <v>1.014329535805111</v>
+        <v>1.020970968489029</v>
       </c>
       <c r="N15">
-        <v>1.007940549062802</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.007707161683177</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.028710036427762</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9797464903381412</v>
+        <v>0.9837101728610349</v>
       </c>
       <c r="D16">
-        <v>1.00574166421118</v>
+        <v>1.012011561022522</v>
       </c>
       <c r="E16">
-        <v>0.9901439937962416</v>
+        <v>0.9936351015609055</v>
       </c>
       <c r="F16">
-        <v>1.002704034701587</v>
+        <v>1.008552603895967</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041035993246728</v>
+        <v>1.044207211630777</v>
       </c>
       <c r="J16">
-        <v>1.008707935331031</v>
+        <v>1.012506436361777</v>
       </c>
       <c r="K16">
-        <v>1.019971643812437</v>
+        <v>1.026131226676676</v>
       </c>
       <c r="L16">
-        <v>1.004656302680054</v>
+        <v>1.008083216283052</v>
       </c>
       <c r="M16">
-        <v>1.016988103252453</v>
+        <v>1.022732907323321</v>
       </c>
       <c r="N16">
-        <v>1.010140416299619</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.008167118985345</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.029625261866473</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9818933579014913</v>
+        <v>0.9853264614034033</v>
       </c>
       <c r="D17">
-        <v>1.007435890243876</v>
+        <v>1.013148853411061</v>
       </c>
       <c r="E17">
-        <v>0.9918481015373334</v>
+        <v>0.9948827114361876</v>
       </c>
       <c r="F17">
-        <v>1.004705670400371</v>
+        <v>1.009990874260823</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041722689637663</v>
+        <v>1.044613400738949</v>
       </c>
       <c r="J17">
-        <v>1.010065580967771</v>
+        <v>1.013360439355009</v>
       </c>
       <c r="K17">
-        <v>1.021314785536579</v>
+        <v>1.026930197606226</v>
       </c>
       <c r="L17">
-        <v>1.006000588902895</v>
+        <v>1.008981064149215</v>
       </c>
       <c r="M17">
-        <v>1.018631692182566</v>
+        <v>1.023825965966577</v>
       </c>
       <c r="N17">
-        <v>1.011499989948886</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.008452342052094</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.030192778855612</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9831346936172651</v>
+        <v>0.9862572056060683</v>
       </c>
       <c r="D18">
-        <v>1.008415738937443</v>
+        <v>1.013800575856636</v>
       </c>
       <c r="E18">
-        <v>0.9928343995841949</v>
+        <v>0.9956012281416153</v>
       </c>
       <c r="F18">
-        <v>1.005863653135286</v>
+        <v>1.010817762604258</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04211806860957</v>
+        <v>1.044843400992143</v>
       </c>
       <c r="J18">
-        <v>1.010850349877117</v>
+        <v>1.013849644992969</v>
       </c>
       <c r="K18">
-        <v>1.022090769915853</v>
+        <v>1.027385270749487</v>
       </c>
       <c r="L18">
-        <v>1.006777977675165</v>
+        <v>1.009496324570292</v>
       </c>
       <c r="M18">
-        <v>1.019581934109297</v>
+        <v>1.024452343900276</v>
       </c>
       <c r="N18">
-        <v>1.012285873320098</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.00861499618184</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.030502803580146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9835561399949778</v>
+        <v>0.9865778557740642</v>
       </c>
       <c r="D19">
-        <v>1.008748444519956</v>
+        <v>1.014027877697082</v>
       </c>
       <c r="E19">
-        <v>0.993169420050827</v>
+        <v>0.9958495151590404</v>
       </c>
       <c r="F19">
-        <v>1.006256903366669</v>
+        <v>1.011104281458757</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042252017558573</v>
+        <v>1.044924221794268</v>
       </c>
       <c r="J19">
-        <v>1.011116745876214</v>
+        <v>1.014020048911197</v>
       </c>
       <c r="K19">
-        <v>1.02235411526311</v>
+        <v>1.027545517482261</v>
       </c>
       <c r="L19">
-        <v>1.007041926328125</v>
+        <v>1.009675347621715</v>
       </c>
       <c r="M19">
-        <v>1.019904532794507</v>
+        <v>1.024670523887317</v>
       </c>
       <c r="N19">
-        <v>1.01255264763207</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.008672229977858</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.030622548267706</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9816641537920372</v>
+        <v>0.9851532742073509</v>
       </c>
       <c r="D20">
-        <v>1.007254986129327</v>
+        <v>1.013026685866034</v>
       </c>
       <c r="E20">
-        <v>0.9916660661932166</v>
+        <v>0.9947488776165376</v>
       </c>
       <c r="F20">
-        <v>1.00449190652059</v>
+        <v>1.009836541211006</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04164954968964</v>
+        <v>1.044569852772979</v>
       </c>
       <c r="J20">
-        <v>1.009920659558991</v>
+        <v>1.013268757296992</v>
       </c>
       <c r="K20">
-        <v>1.021171453770387</v>
+        <v>1.026844279954528</v>
       </c>
       <c r="L20">
-        <v>1.005857058001091</v>
+        <v>1.008884694432335</v>
       </c>
       <c r="M20">
-        <v>1.018456228363283</v>
+        <v>1.023708604321789</v>
       </c>
       <c r="N20">
-        <v>1.011354862735084</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.008421663462493</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.030130685044081</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9753826738709541</v>
+        <v>0.98044084111831</v>
       </c>
       <c r="D21">
-        <v>1.002299662664072</v>
+        <v>1.009715510911989</v>
       </c>
       <c r="E21">
-        <v>0.9866866637126345</v>
+        <v>0.9911177310488023</v>
       </c>
       <c r="F21">
-        <v>0.998639657303158</v>
+        <v>1.005648878673339</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039629456049186</v>
+        <v>1.043377224746634</v>
       </c>
       <c r="J21">
-        <v>1.005946951382088</v>
+        <v>1.010779711750127</v>
       </c>
       <c r="K21">
-        <v>1.017237597816433</v>
+        <v>1.024515128432569</v>
       </c>
       <c r="L21">
-        <v>1.00192472861737</v>
+        <v>1.006269357579257</v>
       </c>
       <c r="M21">
-        <v>1.013646847706404</v>
+        <v>1.020524015829476</v>
       </c>
       <c r="N21">
-        <v>1.007375511436779</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.007590941382182</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.028487122536528</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9713276237404657</v>
+        <v>0.9774097766479408</v>
       </c>
       <c r="D22">
-        <v>0.9991035905491469</v>
+        <v>1.007584586788266</v>
       </c>
       <c r="E22">
-        <v>0.9834817376235103</v>
+        <v>0.9887893846505765</v>
       </c>
       <c r="F22">
-        <v>0.9948680115329958</v>
+        <v>1.002959093591888</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038310446498432</v>
+        <v>1.042593344334113</v>
       </c>
       <c r="J22">
-        <v>1.003379977184668</v>
+        <v>1.009174525012772</v>
       </c>
       <c r="K22">
-        <v>1.014692826426264</v>
+        <v>1.02300727417957</v>
       </c>
       <c r="L22">
-        <v>0.9993876836509038</v>
+        <v>1.004586246062212</v>
       </c>
       <c r="M22">
-        <v>1.010541824299273</v>
+        <v>1.01847215730129</v>
       </c>
       <c r="N22">
-        <v>1.004804891841562</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.007054242640068</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.027407366892791</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9734876758043441</v>
+        <v>0.9790153989911904</v>
       </c>
       <c r="D23">
-        <v>1.000805775176772</v>
+        <v>1.008708706460565</v>
       </c>
       <c r="E23">
-        <v>0.9851880145398525</v>
+        <v>0.9900209283878403</v>
       </c>
       <c r="F23">
-        <v>0.9968764767518501</v>
+        <v>1.004380877698016</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039014435990129</v>
+        <v>1.043006974431149</v>
       </c>
       <c r="J23">
-        <v>1.00474749860985</v>
+        <v>1.01002187665669</v>
       </c>
       <c r="K23">
-        <v>1.016048844566676</v>
+        <v>1.023800732338666</v>
       </c>
       <c r="L23">
-        <v>1.000738957935913</v>
+        <v>1.005475236063595</v>
       </c>
       <c r="M23">
-        <v>1.012195813459887</v>
+        <v>1.019555233193183</v>
       </c>
       <c r="N23">
-        <v>1.006174355304025</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.00733657549032</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.027958663560569</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9817677548558396</v>
+        <v>0.985219694457802</v>
       </c>
       <c r="D24">
-        <v>1.00733675470769</v>
+        <v>1.013066200782178</v>
       </c>
       <c r="E24">
-        <v>0.9917483438082907</v>
+        <v>0.9947985578244265</v>
       </c>
       <c r="F24">
-        <v>1.004588526625481</v>
+        <v>1.00989158292737</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041682614402544</v>
+        <v>1.044581594984735</v>
       </c>
       <c r="J24">
-        <v>1.009986165271262</v>
+        <v>1.013298816009125</v>
       </c>
       <c r="K24">
-        <v>1.021236242195577</v>
+        <v>1.026867679961778</v>
       </c>
       <c r="L24">
-        <v>1.0059219341315</v>
+        <v>1.008917636518708</v>
       </c>
       <c r="M24">
-        <v>1.018535538924963</v>
+        <v>1.023747189825311</v>
       </c>
       <c r="N24">
-        <v>1.011420461472979</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.00843016971521</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.030119612409469</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9909520128444698</v>
+        <v>0.99216996764007</v>
       </c>
       <c r="D25">
-        <v>1.01458960639119</v>
+        <v>1.017958915335711</v>
       </c>
       <c r="E25">
-        <v>0.9990621010863853</v>
+        <v>1.000183666014508</v>
       </c>
       <c r="F25">
-        <v>1.013166385351401</v>
+        <v>1.016089039863451</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044577502676584</v>
+        <v>1.046285395211745</v>
       </c>
       <c r="J25">
-        <v>1.015787762305332</v>
+        <v>1.016963747814026</v>
       </c>
       <c r="K25">
-        <v>1.026965581883995</v>
+        <v>1.030284695324843</v>
       </c>
       <c r="L25">
-        <v>1.011674994196189</v>
+        <v>1.012779131473579</v>
       </c>
       <c r="M25">
-        <v>1.02556369144943</v>
+        <v>1.0284426247218</v>
       </c>
       <c r="N25">
-        <v>1.01723029744029</v>
+        <v>1.009653370618467</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.032532766069434</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_14/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,93 +439,111 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9975071410161824</v>
+        <v>0.997646129643157</v>
       </c>
       <c r="D2">
-        <v>1.021709170328635</v>
+        <v>1.021480621871749</v>
       </c>
       <c r="E2">
-        <v>1.004340853832683</v>
+        <v>1.00446304165259</v>
       </c>
       <c r="F2">
-        <v>1.020857750646001</v>
+        <v>1.02070951615629</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.04753419362472</v>
+        <v>1.047418170660486</v>
       </c>
       <c r="J2">
-        <v>1.019762669579513</v>
+        <v>1.019897473231652</v>
       </c>
       <c r="K2">
-        <v>1.032874125094955</v>
+        <v>1.032648594034094</v>
       </c>
       <c r="L2">
-        <v>1.015740043127515</v>
+        <v>1.015860547431859</v>
       </c>
       <c r="M2">
-        <v>1.032033954828577</v>
+        <v>1.031887681299304</v>
       </c>
       <c r="N2">
-        <v>1.010585066170393</v>
+        <v>1.012542009566218</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.034315073831296</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.034164425474121</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020820523968624</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C3">
-        <v>1.001294717483054</v>
+        <v>1.001277523903785</v>
       </c>
       <c r="D3">
-        <v>1.024381114502248</v>
+        <v>1.023950839006022</v>
       </c>
       <c r="E3">
-        <v>1.007306117633933</v>
+        <v>1.007292936055703</v>
       </c>
       <c r="F3">
-        <v>1.024255524122842</v>
+        <v>1.023913574113277</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.04839567868648</v>
+        <v>1.04817701792713</v>
       </c>
       <c r="J3">
-        <v>1.021750149314102</v>
+        <v>1.021733422811612</v>
       </c>
       <c r="K3">
-        <v>1.03471125635062</v>
+        <v>1.034286168376041</v>
       </c>
       <c r="L3">
-        <v>1.017846361107595</v>
+        <v>1.017833345154849</v>
       </c>
       <c r="M3">
-        <v>1.03458717956482</v>
+        <v>1.034249353013938</v>
       </c>
       <c r="N3">
-        <v>1.011248135673579</v>
+        <v>1.013029186795413</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.035611421377897</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.035319387829603</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021152899556582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003701978123594</v>
+        <v>1.0035866253523</v>
       </c>
       <c r="D4">
-        <v>1.026080644827063</v>
+        <v>1.025522966717246</v>
       </c>
       <c r="E4">
-        <v>1.009196808317414</v>
+        <v>1.009098404007352</v>
       </c>
       <c r="F4">
-        <v>1.026419259168366</v>
+        <v>1.025955194333119</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.048929182209671</v>
+        <v>1.048645580349231</v>
       </c>
       <c r="J4">
-        <v>1.023011458648004</v>
+        <v>1.022899027740555</v>
       </c>
       <c r="K4">
-        <v>1.035874168483482</v>
+        <v>1.035322809923065</v>
       </c>
       <c r="L4">
-        <v>1.019185488862295</v>
+        <v>1.019088245687138</v>
       </c>
       <c r="M4">
-        <v>1.036208949812693</v>
+        <v>1.03575013884302</v>
       </c>
       <c r="N4">
-        <v>1.011668971647771</v>
+        <v>1.013338541716108</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.036434609550766</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.036053371047977</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021360812704136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004706404367059</v>
+        <v>1.004550368302417</v>
       </c>
       <c r="D5">
-        <v>1.026791729456856</v>
+        <v>1.026181161363821</v>
       </c>
       <c r="E5">
-        <v>1.009987414059128</v>
+        <v>1.00985365427215</v>
       </c>
       <c r="F5">
-        <v>1.027324018922534</v>
+        <v>1.026809301123718</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.049149577080417</v>
+        <v>1.048838987140518</v>
       </c>
       <c r="J5">
-        <v>1.023538404504804</v>
+        <v>1.023386202843363</v>
       </c>
       <c r="K5">
-        <v>1.036360435460222</v>
+        <v>1.035756602715666</v>
       </c>
       <c r="L5">
-        <v>1.019745160701258</v>
+        <v>1.019612936800183</v>
       </c>
       <c r="M5">
-        <v>1.036886861117544</v>
+        <v>1.036377813434805</v>
       </c>
       <c r="N5">
-        <v>1.011845063607786</v>
+        <v>1.01346806116784</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.036785646516814</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.036368013706074</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021447538395811</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004877538567249</v>
+        <v>1.004714613300987</v>
       </c>
       <c r="D6">
-        <v>1.026914942313172</v>
+        <v>1.026295473787197</v>
       </c>
       <c r="E6">
-        <v>1.010122556862764</v>
+        <v>1.009982804507402</v>
       </c>
       <c r="F6">
-        <v>1.027479399351318</v>
+        <v>1.026956149385442</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.049188397981369</v>
+        <v>1.048873264824967</v>
       </c>
       <c r="J6">
-        <v>1.023629542666131</v>
+        <v>1.023470600534851</v>
       </c>
       <c r="K6">
-        <v>1.036445901089712</v>
+        <v>1.035833234903932</v>
       </c>
       <c r="L6">
-        <v>1.019841552724401</v>
+        <v>1.019703397646938</v>
       </c>
       <c r="M6">
-        <v>1.037004168636278</v>
+        <v>1.036486656027584</v>
       </c>
       <c r="N6">
-        <v>1.01187584810813</v>
+        <v>1.013490753711298</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.036854860419523</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.036431849658504</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02146322309148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003723658271343</v>
+        <v>1.00361501377852</v>
       </c>
       <c r="D7">
-        <v>1.026101430384941</v>
+        <v>1.02554804299722</v>
       </c>
       <c r="E7">
-        <v>1.009214827968077</v>
+        <v>1.009122392311724</v>
       </c>
       <c r="F7">
-        <v>1.026441893307578</v>
+        <v>1.025982786368472</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.048937874085545</v>
+        <v>1.048656453018506</v>
       </c>
       <c r="J7">
-        <v>1.023026533737654</v>
+        <v>1.022920639997299</v>
       </c>
       <c r="K7">
-        <v>1.035891819417197</v>
+        <v>1.035344700518096</v>
       </c>
       <c r="L7">
-        <v>1.019200331371608</v>
+        <v>1.019108986000277</v>
       </c>
       <c r="M7">
-        <v>1.036228429889579</v>
+        <v>1.035774518637379</v>
       </c>
       <c r="N7">
-        <v>1.011674901343143</v>
+        <v>1.013370854945986</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.036467291930329</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.036091048645509</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021366712383081</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9988064804903987</v>
+        <v>0.9989148137762969</v>
       </c>
       <c r="D8">
-        <v>1.022632063856877</v>
+        <v>1.022350347488422</v>
       </c>
       <c r="E8">
-        <v>1.005358050145146</v>
+        <v>1.005454212348338</v>
       </c>
       <c r="F8">
-        <v>1.022026214012213</v>
+        <v>1.021829506123002</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.047837299295783</v>
+        <v>1.047694234720922</v>
       </c>
       <c r="J8">
-        <v>1.020449360949224</v>
+        <v>1.020554541877319</v>
       </c>
       <c r="K8">
-        <v>1.033513953565451</v>
+        <v>1.033235846199064</v>
       </c>
       <c r="L8">
-        <v>1.016465929107042</v>
+        <v>1.016560806267657</v>
       </c>
       <c r="M8">
-        <v>1.032915868197579</v>
+        <v>1.032721683761183</v>
       </c>
       <c r="N8">
-        <v>1.010815317481862</v>
+        <v>1.01279592211082</v>
       </c>
       <c r="Q8">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R8">
-        <v>1.034790521664643</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.034604960562843</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020942856978215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9897804196060939</v>
+        <v>0.990271293435548</v>
       </c>
       <c r="D9">
-        <v>1.016267880453011</v>
+        <v>1.016473962867221</v>
       </c>
       <c r="E9">
-        <v>0.9983265858678654</v>
+        <v>0.9987533887007274</v>
       </c>
       <c r="F9">
-        <v>1.013951080033239</v>
+        <v>1.014224748722621</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045702151324204</v>
+        <v>1.045806556776098</v>
       </c>
       <c r="J9">
-        <v>1.01569929174678</v>
+        <v>1.016172337602635</v>
       </c>
       <c r="K9">
-        <v>1.029102423416915</v>
+        <v>1.02930529854879</v>
       </c>
       <c r="L9">
-        <v>1.011446871520458</v>
+        <v>1.011866723734568</v>
       </c>
       <c r="M9">
-        <v>1.026821794346892</v>
+        <v>1.027091179340573</v>
       </c>
       <c r="N9">
-        <v>1.009229809352467</v>
+        <v>1.011642164925266</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.031668040885461</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.031822303619478</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020130065007903</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.983509384169074</v>
+        <v>0.984307406311138</v>
       </c>
       <c r="D10">
-        <v>1.011859683479033</v>
+        <v>1.012433306893169</v>
       </c>
       <c r="E10">
-        <v>0.9934778159706771</v>
+        <v>0.9941697413581924</v>
       </c>
       <c r="F10">
-        <v>1.008368018971288</v>
+        <v>1.009001612381964</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044149356538322</v>
+        <v>1.044439516154458</v>
       </c>
       <c r="J10">
-        <v>1.012392905016576</v>
+        <v>1.013157773375445</v>
       </c>
       <c r="K10">
-        <v>1.026018059121313</v>
+        <v>1.026581645099804</v>
       </c>
       <c r="L10">
-        <v>1.007965837524453</v>
+        <v>1.008645066916701</v>
       </c>
       <c r="M10">
-        <v>1.022587812253262</v>
+        <v>1.023210219958116</v>
       </c>
       <c r="N10">
-        <v>1.008126908540913</v>
+        <v>1.010959840176322</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.029504103903694</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.029915102431305</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019556153779333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9807376822902069</v>
+        <v>0.9817278050067052</v>
       </c>
       <c r="D11">
-        <v>1.009920733334589</v>
+        <v>1.010695943080339</v>
       </c>
       <c r="E11">
-        <v>0.9913452491586688</v>
+        <v>0.9922041398466551</v>
       </c>
       <c r="F11">
-        <v>1.005910528764582</v>
+        <v>1.006747640998424</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.043451023055303</v>
+        <v>1.043842893878483</v>
       </c>
       <c r="J11">
-        <v>1.010934347230334</v>
+        <v>1.011880992707303</v>
       </c>
       <c r="K11">
-        <v>1.024657953277142</v>
+        <v>1.025418929699844</v>
       </c>
       <c r="L11">
-        <v>1.00643224812348</v>
+        <v>1.00727458755844</v>
       </c>
       <c r="M11">
-        <v>1.020721835371681</v>
+        <v>1.021543418786548</v>
       </c>
       <c r="N11">
-        <v>1.007641840386486</v>
+        <v>1.010851518867754</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.028575550182178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.029129332951005</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019312208818778</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9796923676589063</v>
+        <v>0.9807602548526</v>
       </c>
       <c r="D12">
-        <v>1.009186715358752</v>
+        <v>1.010041498754684</v>
       </c>
       <c r="E12">
-        <v>0.9905416306792044</v>
+        <v>0.9914682193189056</v>
       </c>
       <c r="F12">
-        <v>1.004982901138777</v>
+        <v>1.005900883387176</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.043183053247827</v>
+        <v>1.043615043424413</v>
       </c>
       <c r="J12">
-        <v>1.010381762258639</v>
+        <v>1.011401800570582</v>
       </c>
       <c r="K12">
-        <v>1.024140003713391</v>
+        <v>1.024978815334722</v>
       </c>
       <c r="L12">
-        <v>1.005852309577463</v>
+        <v>1.006760720733331</v>
       </c>
       <c r="M12">
-        <v>1.02001525525006</v>
+        <v>1.020915898304065</v>
       </c>
       <c r="N12">
-        <v>1.007457357861561</v>
+        <v>1.010826596856885</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.028209336996518</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.028818159759868</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019219096760138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9799160101685627</v>
+        <v>0.9809670261994877</v>
       </c>
       <c r="D13">
-        <v>1.009343082635081</v>
+        <v>1.010180651352321</v>
       </c>
       <c r="E13">
-        <v>0.990713344799912</v>
+        <v>0.9916252483732828</v>
       </c>
       <c r="F13">
-        <v>1.005180951117997</v>
+        <v>1.006081423539474</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.043240058900908</v>
+        <v>1.04366337121987</v>
       </c>
       <c r="J13">
-        <v>1.010499540927123</v>
+        <v>1.011503666710383</v>
       </c>
       <c r="K13">
-        <v>1.024250006250866</v>
+        <v>1.025071983261167</v>
       </c>
       <c r="L13">
-        <v>1.005976011566657</v>
+        <v>1.006870093792495</v>
       </c>
       <c r="M13">
-        <v>1.020165858100997</v>
+        <v>1.021049387471968</v>
       </c>
       <c r="N13">
-        <v>1.007496532904668</v>
+        <v>1.010830908611831</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.028284598266952</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.028881274868856</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019238698301755</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9806510383525784</v>
+        <v>0.9816474986677993</v>
       </c>
       <c r="D14">
-        <v>1.009859602649287</v>
+        <v>1.010641321085246</v>
       </c>
       <c r="E14">
-        <v>0.9912785443653138</v>
+        <v>0.9921429529233344</v>
       </c>
       <c r="F14">
-        <v>1.005833461135502</v>
+        <v>1.006677181136442</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043428674323915</v>
+        <v>1.043823827322342</v>
       </c>
       <c r="J14">
-        <v>1.010888354096146</v>
+        <v>1.011840985359357</v>
       </c>
       <c r="K14">
-        <v>1.024614674417181</v>
+        <v>1.025382019096361</v>
       </c>
       <c r="L14">
-        <v>1.006384017896605</v>
+        <v>1.007231744129093</v>
       </c>
       <c r="M14">
-        <v>1.020663024732855</v>
+        <v>1.02149106983202</v>
       </c>
       <c r="N14">
-        <v>1.007626423365708</v>
+        <v>1.010848990868541</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.028543872638117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.02910205499324</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019304352939693</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9811046272678527</v>
+        <v>0.9820681231679047</v>
       </c>
       <c r="D15">
-        <v>1.010179721566391</v>
+        <v>1.010927517793525</v>
       </c>
       <c r="E15">
-        <v>0.9916278241651126</v>
+        <v>0.9924635351535454</v>
       </c>
       <c r="F15">
-        <v>1.006237001466438</v>
+        <v>1.007046301529075</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.043545622718007</v>
+        <v>1.043923668337029</v>
       </c>
       <c r="J15">
-        <v>1.011129173631318</v>
+        <v>1.012050662187439</v>
       </c>
       <c r="K15">
-        <v>1.024841307606378</v>
+        <v>1.025575458590864</v>
       </c>
       <c r="L15">
-        <v>1.006636557116942</v>
+        <v>1.007456264771306</v>
       </c>
       <c r="M15">
-        <v>1.020970968489029</v>
+        <v>1.021765351077174</v>
       </c>
       <c r="N15">
-        <v>1.007707161683177</v>
+        <v>1.010862939623542</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.028710036427762</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.029245315994265</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019345529697958</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9837101728610349</v>
+        <v>0.984495455670265</v>
       </c>
       <c r="D16">
-        <v>1.012011561022522</v>
+        <v>1.01257188115844</v>
       </c>
       <c r="E16">
-        <v>0.9936351015609055</v>
+        <v>0.9943158964784482</v>
       </c>
       <c r="F16">
-        <v>1.008552603895967</v>
+        <v>1.009172758406955</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.044207211630777</v>
+        <v>1.044490654714634</v>
       </c>
       <c r="J16">
-        <v>1.012506436361777</v>
+        <v>1.013259217838087</v>
       </c>
       <c r="K16">
-        <v>1.026131226676676</v>
+        <v>1.026681774520576</v>
       </c>
       <c r="L16">
-        <v>1.008083216283052</v>
+        <v>1.008751561185526</v>
       </c>
       <c r="M16">
-        <v>1.022732907323321</v>
+        <v>1.023342150483826</v>
       </c>
       <c r="N16">
-        <v>1.008167118985345</v>
+        <v>1.010975964576557</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.029625261866473</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.03003101741584</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019579254960546</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9853264614034033</v>
+        <v>0.9860124154428216</v>
       </c>
       <c r="D17">
-        <v>1.013148853411061</v>
+        <v>1.013600633289173</v>
       </c>
       <c r="E17">
-        <v>0.9948827114361876</v>
+        <v>0.9954773217123057</v>
       </c>
       <c r="F17">
-        <v>1.009990874260823</v>
+        <v>1.010502549652086</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.044613400738949</v>
+        <v>1.044842027037456</v>
       </c>
       <c r="J17">
-        <v>1.013360439355009</v>
+        <v>1.014018934684989</v>
       </c>
       <c r="K17">
-        <v>1.026930197606226</v>
+        <v>1.027374323715115</v>
       </c>
       <c r="L17">
-        <v>1.008981064149215</v>
+        <v>1.009565117298488</v>
       </c>
       <c r="M17">
-        <v>1.023825965966577</v>
+        <v>1.02432890339441</v>
       </c>
       <c r="N17">
-        <v>1.008452342052094</v>
+        <v>1.011083068531629</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.030192778855612</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.030523531459792</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019725359572666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9862572056060683</v>
+        <v>0.9868903134095582</v>
       </c>
       <c r="D18">
-        <v>1.013800575856636</v>
+        <v>1.014192705921467</v>
       </c>
       <c r="E18">
-        <v>0.9956012281416153</v>
+        <v>0.9961500695514904</v>
       </c>
       <c r="F18">
-        <v>1.010817762604258</v>
+        <v>1.011270275709049</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.044843400992143</v>
+        <v>1.045041886450782</v>
       </c>
       <c r="J18">
-        <v>1.013849644992969</v>
+        <v>1.014457904274491</v>
       </c>
       <c r="K18">
-        <v>1.027385270749487</v>
+        <v>1.027770870699152</v>
       </c>
       <c r="L18">
-        <v>1.009496324570292</v>
+        <v>1.010035590373698</v>
       </c>
       <c r="M18">
-        <v>1.024452343900276</v>
+        <v>1.024897264487337</v>
       </c>
       <c r="N18">
-        <v>1.00861499618184</v>
+        <v>1.011157958593768</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.030502803580146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.030791038580931</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019808309759973</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9865778557740642</v>
+        <v>0.9871935688335306</v>
       </c>
       <c r="D19">
-        <v>1.014027877697082</v>
+        <v>1.014400132446217</v>
       </c>
       <c r="E19">
-        <v>0.9958495151590404</v>
+        <v>0.9963832899790951</v>
       </c>
       <c r="F19">
-        <v>1.011104281458757</v>
+        <v>1.011537138199395</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.044924221794268</v>
+        <v>1.045112661673914</v>
       </c>
       <c r="J19">
-        <v>1.014020048911197</v>
+        <v>1.014611759488822</v>
       </c>
       <c r="K19">
-        <v>1.027545517482261</v>
+        <v>1.027911609649141</v>
       </c>
       <c r="L19">
-        <v>1.009675347621715</v>
+        <v>1.010199865559679</v>
       </c>
       <c r="M19">
-        <v>1.024670523887317</v>
+        <v>1.025096161877026</v>
       </c>
       <c r="N19">
-        <v>1.008672229977858</v>
+        <v>1.011187505730918</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.030622548267706</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.030897610484538</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019838251543106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9851532742073509</v>
+        <v>0.9858494146535415</v>
       </c>
       <c r="D20">
-        <v>1.013026685866034</v>
+        <v>1.013489769347979</v>
       </c>
       <c r="E20">
-        <v>0.9947488776165376</v>
+        <v>0.9953523209940582</v>
       </c>
       <c r="F20">
-        <v>1.009836541211006</v>
+        <v>1.010359472232295</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044569852772979</v>
+        <v>1.044804189486178</v>
       </c>
       <c r="J20">
-        <v>1.013268757296992</v>
+        <v>1.013936930531241</v>
       </c>
       <c r="K20">
-        <v>1.026844279954528</v>
+        <v>1.027299493471877</v>
       </c>
       <c r="L20">
-        <v>1.008884694432335</v>
+        <v>1.009477389523619</v>
       </c>
       <c r="M20">
-        <v>1.023708604321789</v>
+        <v>1.024222576281342</v>
       </c>
       <c r="N20">
-        <v>1.008421663462493</v>
+        <v>1.011069968092568</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.030130685044081</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.030469148277405</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019709529195994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.98044084111831</v>
+        <v>0.9814715031768679</v>
       </c>
       <c r="D21">
-        <v>1.009715510911989</v>
+        <v>1.010526211546101</v>
       </c>
       <c r="E21">
-        <v>0.9911177310488023</v>
+        <v>0.9920123019657745</v>
       </c>
       <c r="F21">
-        <v>1.005648878673339</v>
+        <v>1.006523495236572</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.043377224746634</v>
+        <v>1.043787007590164</v>
       </c>
       <c r="J21">
-        <v>1.010779711750127</v>
+        <v>1.011764851842325</v>
       </c>
       <c r="K21">
-        <v>1.024515128432569</v>
+        <v>1.025310868595707</v>
       </c>
       <c r="L21">
-        <v>1.006269357579257</v>
+        <v>1.007146600551011</v>
       </c>
       <c r="M21">
-        <v>1.020524015829476</v>
+        <v>1.021382323068559</v>
       </c>
       <c r="N21">
-        <v>1.007590941382182</v>
+        <v>1.010911385021761</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.028487122536528</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.029066692020279</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.01929095690473</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9774097766479408</v>
+        <v>0.9786551728520647</v>
       </c>
       <c r="D22">
-        <v>1.007584586788266</v>
+        <v>1.008618507214703</v>
       </c>
       <c r="E22">
-        <v>0.9887893846505765</v>
+        <v>0.9898706568256003</v>
       </c>
       <c r="F22">
-        <v>1.002959093591888</v>
+        <v>1.004059857408006</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.042593344334113</v>
+        <v>1.043115592238465</v>
       </c>
       <c r="J22">
-        <v>1.009174525012772</v>
+        <v>1.010361664194785</v>
       </c>
       <c r="K22">
-        <v>1.02300727417957</v>
+        <v>1.024021141653114</v>
       </c>
       <c r="L22">
-        <v>1.004586246062212</v>
+        <v>1.005645484582316</v>
       </c>
       <c r="M22">
-        <v>1.01847215730129</v>
+        <v>1.0195513144916</v>
       </c>
       <c r="N22">
-        <v>1.007054242640068</v>
+        <v>1.010796414271627</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.027407366892791</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.02813987411007</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019016036358533</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9790153989911904</v>
+        <v>0.9801348498505676</v>
       </c>
       <c r="D23">
-        <v>1.008708706460565</v>
+        <v>1.009615744903338</v>
       </c>
       <c r="E23">
-        <v>0.9900209283878403</v>
+        <v>0.9909924556973774</v>
       </c>
       <c r="F23">
-        <v>1.004380877698016</v>
+        <v>1.005352106132992</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.043006974431149</v>
+        <v>1.043465301715585</v>
       </c>
       <c r="J23">
-        <v>1.01002187665669</v>
+        <v>1.011090519853255</v>
       </c>
       <c r="K23">
-        <v>1.023800732338666</v>
+        <v>1.024690632812907</v>
       </c>
       <c r="L23">
-        <v>1.005475236063595</v>
+        <v>1.006427486864334</v>
       </c>
       <c r="M23">
-        <v>1.019555233193183</v>
+        <v>1.020507904943952</v>
       </c>
       <c r="N23">
-        <v>1.00733657549032</v>
+        <v>1.010813093175996</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.027958663560569</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.028602575184739</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019157564451555</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.985219694457802</v>
+        <v>0.9859118044283175</v>
       </c>
       <c r="D24">
-        <v>1.013066200782178</v>
+        <v>1.013524550768886</v>
       </c>
       <c r="E24">
-        <v>0.9947985578244265</v>
+        <v>0.995398546534616</v>
       </c>
       <c r="F24">
-        <v>1.00989158292737</v>
+        <v>1.010409858572423</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.044581594984735</v>
+        <v>1.044813540636468</v>
       </c>
       <c r="J24">
-        <v>1.013298816009125</v>
+        <v>1.013963165046107</v>
       </c>
       <c r="K24">
-        <v>1.026867679961778</v>
+        <v>1.027318251169682</v>
       </c>
       <c r="L24">
-        <v>1.008917636518708</v>
+        <v>1.009506953611367</v>
       </c>
       <c r="M24">
-        <v>1.023747189825311</v>
+        <v>1.024256598777674</v>
       </c>
       <c r="N24">
-        <v>1.00843016971521</v>
+        <v>1.011071798271679</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.030119612409469</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.030452124972453</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019712145894287</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.99216996764007</v>
+        <v>0.9925492281275179</v>
       </c>
       <c r="D25">
-        <v>1.017958915335711</v>
+        <v>1.018029054721207</v>
       </c>
       <c r="E25">
-        <v>1.000183666014508</v>
+        <v>1.0005139144985</v>
       </c>
       <c r="F25">
-        <v>1.016089039863451</v>
+        <v>1.016230257209344</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046285395211745</v>
+        <v>1.04632095090015</v>
       </c>
       <c r="J25">
-        <v>1.016963747814026</v>
+        <v>1.017329968779834</v>
       </c>
       <c r="K25">
-        <v>1.030284695324843</v>
+        <v>1.030353794270674</v>
       </c>
       <c r="L25">
-        <v>1.012779131473579</v>
+        <v>1.013104257841373</v>
       </c>
       <c r="M25">
-        <v>1.0284426247218</v>
+        <v>1.028581737636799</v>
       </c>
       <c r="N25">
-        <v>1.009653370618467</v>
+        <v>1.011917632941837</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.032532766069434</v>
+        <v>1.032595235735215</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020350140638138</v>
       </c>
     </row>
   </sheetData>
